--- a/src/test/resources/excel/template/single2sheet.xlsx
+++ b/src/test/resources/excel/template/single2sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{791737B3-685B-4947-996E-D745F1F47488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{07CD2111-227B-4801-AC9B-7A87163DEA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'単一シート出力テンプレート (2)'!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +81,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="appList[0].itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.appList[0].itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -123,7 +137,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="appList[1].itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.appList[1].itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -251,33 +265,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${appList[0].text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${appList[0].number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${appList[0].title} 申込書</t>
-    <rPh sb="20" eb="23">
+    <t>${inputEntity.appList[1].title} 申込書</t>
+    <rPh sb="0" eb="35">
       <t>モウシコミショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${appList[1].title} 申込書</t>
-    <rPh sb="20" eb="23">
+    <t>${inputEntity.appList[1].text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.appList[1].number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.appList[0].title} 申込書</t>
+    <rPh sb="32" eb="35">
       <t>モウシコミショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${appList[1].text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${appList[1].number}</t>
+    <t>${inputEntity.appList[0].text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.appList[0].number}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1170,24 +1184,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1197,14 +1209,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${appList[0].text}</v>
+        <v>${inputEntity.appList[0].text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1213,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1229,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1237,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1268,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1298,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1316,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rnYBjf+CgNPeQLKq34FbK8hamz3q5yA2dTFofGgfzTKg07otIFkyIz8T/yqdNk1Qa8kAVEpfa1mXIVeko59txQ==" saltValue="iv9kIhR6Qev/bm/4RGUbbw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -1320,24 +1332,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1347,14 +1357,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${appList[1].text}</v>
+        <v>${inputEntity.appList[1].text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1363,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1379,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1387,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1418,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1464,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BbTQ/M5T4ytSfdpyjFEulTWOHsJzM2T5ZwCR1YYTMlAYHqljEJu+R49NBLIkAa4A7M1cUKDayfCW34QEsgP//Q==" saltValue="Pm4YRBXEmQJI2SBJYiVucw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
